--- a/Docs/Sugerencias pendientes León Peláez.xlsx
+++ b/Docs/Sugerencias pendientes León Peláez.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>ESTADO</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Aprobado</t>
+  </si>
+  <si>
+    <t>CAMBIOS SOLICITADOS ING. LEÓN PELÁEZ</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,26 +93,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,181 +417,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
